--- a/reconciliation-engine/illustrations/Recon2.0_Template.xlsx
+++ b/reconciliation-engine/illustrations/Recon2.0_Template.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saiprasadkrishnamurthy/2.0/reconciliation-engine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saiprasadkrishnamurthy/2.0/recon2.0/reconciliation-engine/illustrations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36DF3F9-51EE-9B4F-BBAC-DB9D45362ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C80808-6EFA-1F48-ACE2-1577D5C3B1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" xr2:uid="{C08B0C19-EF01-7B46-898D-9F2EEE986A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>Datasource</t>
   </si>
@@ -116,12 +117,6 @@
     <t>INCORRECT_TDS_ON_TDS_LEDGER</t>
   </si>
   <si>
-    <t>Datasource 1</t>
-  </si>
-  <si>
-    <t>Datasource 2</t>
-  </si>
-  <si>
     <t>Field 1</t>
   </si>
   <si>
@@ -180,13 +175,34 @@
   </si>
   <si>
     <t>TRANSACTIONS_UNMATCHED_BETWEEN_TDSLEDGER_AND_26AS</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>transactionAmount</t>
+  </si>
+  <si>
+    <t>invoiceNo</t>
+  </si>
+  <si>
+    <t>TDS Ledger</t>
+  </si>
+  <si>
+    <t>amountPaid</t>
+  </si>
+  <si>
+    <t>tdsLedger.tds</t>
+  </si>
+  <si>
+    <t>_26as.taxFiled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,6 +213,21 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -241,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -258,6 +289,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE8A7FB-54C2-5449-8D47-96BCC80DDD8D}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,8 +622,8 @@
     <col min="4" max="4" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="64.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="3"/>
@@ -650,7 +686,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -716,15 +752,15 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
@@ -732,84 +768,66 @@
         <v>27</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="3" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
@@ -817,71 +835,410 @@
         <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7D779E-EB07-734E-9825-AAAD9C9C2695}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="N2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="6">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>50</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6">
+        <v>1100</v>
+      </c>
+      <c r="M3" s="6">
+        <v>110</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1100</v>
+      </c>
+      <c r="C4" s="6">
+        <v>111</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>50</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
+        <v>1600</v>
+      </c>
+      <c r="M4" s="6">
+        <v>160</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>11100</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1118</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>110</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>320</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="6">
+        <v>100</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1100</v>
+      </c>
+      <c r="C18" s="6">
+        <v>111</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>3</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>47</v>
+      <c r="B19" s="6">
+        <v>11100</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1118</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/reconciliation-engine/illustrations/Recon2.0_Template.xlsx
+++ b/reconciliation-engine/illustrations/Recon2.0_Template.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saiprasadkrishnamurthy/2.0/recon2.0/reconciliation-engine/illustrations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C80808-6EFA-1F48-ACE2-1577D5C3B1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5697C465-D18A-D94F-9945-BBB8E95461AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" xr2:uid="{C08B0C19-EF01-7B46-898D-9F2EEE986A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>Datasource</t>
   </si>
@@ -129,12 +130,6 @@
     <t>tds</t>
   </si>
   <si>
-    <t>TRANSACTION_TOTALS_MATCHED_BETWEEN_SALES_AND_TDSLEDGER</t>
-  </si>
-  <si>
-    <t>TRANSACTION_TOTALS_UNMATCHED_BETWEEN_SALES_AND_TDSLEDGER</t>
-  </si>
-  <si>
     <t>Sub Bucket Fields 1</t>
   </si>
   <si>
@@ -144,27 +139,15 @@
     <t>taxFiled</t>
   </si>
   <si>
-    <t>TRANSACTION_TOTALS_MATCHED_BETWEEN_TDSLEDGER_AND_26AS</t>
-  </si>
-  <si>
-    <t>TRANSACTION_TOTALS_UNMATCHED_BETWEEN_TDSLEDGER_AND_26AS</t>
-  </si>
-  <si>
     <t>TotalsChecks</t>
   </si>
   <si>
-    <t>EntryWiseOneToManyChecks</t>
-  </si>
-  <si>
     <t>ValueWithinToleranceCheck</t>
   </si>
   <si>
     <t>TotalsWithinToleranceCheck</t>
   </si>
   <si>
-    <t>MultiMatchCheck</t>
-  </si>
-  <si>
     <t>TRANSACTIONS_MATCHED_BETWEEN_SALES_AND_TDSLEDGER</t>
   </si>
   <si>
@@ -196,6 +179,79 @@
   </si>
   <si>
     <t>_26as.taxFiled</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Deposits</t>
+  </si>
+  <si>
+    <t>Withdrawals</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Chequeue #80</t>
+  </si>
+  <si>
+    <t>Cheque #80</t>
+  </si>
+  <si>
+    <t>Chequeue #81</t>
+  </si>
+  <si>
+    <t>Cheque #81</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>sales.invoiceNo</t>
+  </si>
+  <si>
+    <t>tdsLedger.invoiceNo</t>
+  </si>
+  <si>
+    <t>TDS_TOTALS_MATCHED_BETWEEN_SALES_AND_TDSLEDGER</t>
+  </si>
+  <si>
+    <t>TDS_TOTALS_UNMATCHED_BETWEEN_SALES_AND_TDSLEDGER</t>
+  </si>
+  <si>
+    <t>TDS_TOTALS_MATCHED_BETWEEN_TDSLEDGER_AND_26AS</t>
+  </si>
+  <si>
+    <t>TDS_TOTALS_UNMATCHED_BETWEEN_TDSLEDGER_AND_26AS</t>
+  </si>
+  <si>
+    <t>EntryWiseChecks</t>
+  </si>
+  <si>
+    <t>OneToOneChecks</t>
+  </si>
+  <si>
+    <t>sales.invoiceNo == tdsLedger.InvoiceNo AND 
+valueWithinTolerance(sales.tdsOnSales,tdsLedger.tds, 1.0)</t>
   </si>
 </sst>
 </file>
@@ -272,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -294,6 +350,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,15 +679,15 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -686,15 +754,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
@@ -752,12 +820,12 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -768,10 +836,10 @@
         <v>27</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>14</v>
@@ -788,101 +856,89 @@
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>15</v>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -890,11 +946,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A79806-79B3-A140-84D1-1525075DFC1E}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>44682</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>468</v>
+      </c>
+      <c r="J3" s="13">
+        <v>44682</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>44682</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>390</v>
+      </c>
+      <c r="J4" s="13">
+        <v>44682</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>44682</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="J5" s="13">
+        <v>44682</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7D779E-EB07-734E-9825-AAAD9C9C2695}">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,7 +1084,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -922,7 +1092,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -936,10 +1106,10 @@
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>28</v>
@@ -950,7 +1120,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>29</v>
@@ -961,10 +1131,10 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>10</v>
@@ -1139,7 +1309,7 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>

--- a/reconciliation-engine/illustrations/Recon2.0_Template.xlsx
+++ b/reconciliation-engine/illustrations/Recon2.0_Template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saiprasadkrishnamurthy/2.0/recon2.0/reconciliation-engine/illustrations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5697C465-D18A-D94F-9945-BBB8E95461AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA39FC82-7D25-814A-875A-D762DF436DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" xr2:uid="{C08B0C19-EF01-7B46-898D-9F2EEE986A3C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" activeTab="2" xr2:uid="{C08B0C19-EF01-7B46-898D-9F2EEE986A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
   <si>
     <t>Datasource</t>
   </si>
@@ -252,6 +252,57 @@
   <si>
     <t>sales.invoiceNo == tdsLedger.InvoiceNo AND 
 valueWithinTolerance(sales.tdsOnSales,tdsLedger.tds, 1.0)</t>
+  </si>
+  <si>
+    <t>FieldsCheck</t>
+  </si>
+  <si>
+    <t>Bank.Description is not empty &amp;&amp; Bank.Withdrawals &gt; 0</t>
+  </si>
+  <si>
+    <t>When Matched</t>
+  </si>
+  <si>
+    <t>When Not Matched</t>
+  </si>
+  <si>
+    <t>VALID_ENTRY</t>
+  </si>
+  <si>
+    <t>INVALID_ENTRY</t>
+  </si>
+  <si>
+    <t>TotalsCheck</t>
+  </si>
+  <si>
+    <t>valueWithTolerance(Bank.Withdrawals, Cash.Amount, 10)</t>
+  </si>
+  <si>
+    <t>VALID_TOTALS</t>
+  </si>
+  <si>
+    <t>INVALID_TOTALS</t>
+  </si>
+  <si>
+    <t>InvoiceNo</t>
+  </si>
+  <si>
+    <t>EntriesOneToOneChecks</t>
+  </si>
+  <si>
+    <t>EntriesOneToManyChecks</t>
+  </si>
+  <si>
+    <t>NO DATA STORE MODE</t>
+  </si>
+  <si>
+    <t>DATA STORE MODE</t>
+  </si>
+  <si>
+    <t>PUSH DATA ACQUISITION MODE</t>
+  </si>
+  <si>
+    <t>PULL DATA ACQUISITION MODE</t>
   </si>
 </sst>
 </file>
@@ -290,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +366,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -328,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -362,6 +419,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE8A7FB-54C2-5449-8D47-96BCC80DDD8D}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,27 +1003,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A79806-79B3-A140-84D1-1525075DFC1E}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A5" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="16.1640625" customWidth="1"/>
     <col min="12" max="12" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>50</v>
       </c>
@@ -970,7 +1033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
@@ -983,6 +1046,9 @@
       <c r="D2" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="E2" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="J2" s="12" t="s">
         <v>47</v>
       </c>
@@ -992,12 +1058,15 @@
       <c r="L2" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>44682</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D3">
@@ -1006,14 +1075,15 @@
       <c r="J3" s="13">
         <v>44682</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="17" t="s">
         <v>55</v>
       </c>
       <c r="L3">
         <v>468</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>44682</v>
       </c>
@@ -1032,8 +1102,9 @@
       <c r="L4">
         <v>390</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>44682</v>
       </c>
@@ -1041,7 +1112,7 @@
         <v>59</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J5" s="13">
         <v>44682</v>
@@ -1051,6 +1122,101 @@
       </c>
       <c r="L5">
         <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C13" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="C29" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1061,18 +1227,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7D779E-EB07-734E-9825-AAAD9C9C2695}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="173" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
@@ -1411,6 +1577,24 @@
         <v>20</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
